--- a/data/trans_dic/P22$ss-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.8455193559734602</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9135222183974214</v>
+        <v>0.9135222183974215</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8922154705529832</v>
@@ -685,7 +685,7 @@
         <v>0.8773865590995317</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9060589901802143</v>
+        <v>0.9060589901802142</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8925397565857037</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8606052523126968</v>
+        <v>0.8633375468015431</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8332632086390056</v>
+        <v>0.8302661648509625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8016039367317875</v>
+        <v>0.8043449488763786</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8898930868844512</v>
+        <v>0.8865039403398954</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8497319439248289</v>
+        <v>0.8493651999047397</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8528991633021885</v>
+        <v>0.8483738960436674</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8394999298751894</v>
+        <v>0.8390429936682544</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8825827876201687</v>
+        <v>0.8836122104292431</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8686220158840062</v>
+        <v>0.8703789093060927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8504016724927018</v>
+        <v>0.8564518075180482</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8303260651214928</v>
+        <v>0.8296914540242478</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8922585654171867</v>
+        <v>0.8932885936710768</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9193466434387656</v>
+        <v>0.9174556138237278</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9009431427178356</v>
+        <v>0.9051328409554251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8765854364343281</v>
+        <v>0.8812712476832952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9346329665397993</v>
+        <v>0.9331700558902476</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9226309117949311</v>
+        <v>0.9222152258151063</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9261787246917816</v>
+        <v>0.9257129130182837</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9088587335925483</v>
+        <v>0.9098909555689011</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.925078346290511</v>
+        <v>0.9272283571437416</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.914249823765218</v>
+        <v>0.9139210132717046</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9049624943839016</v>
+        <v>0.9064497329239791</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8819496999821158</v>
+        <v>0.8845311875114887</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9252314250658199</v>
+        <v>0.9258449355821921</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.8887857059363355</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9182921008408604</v>
+        <v>0.9182921008408603</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8424777289167504</v>
+        <v>0.8371781906958435</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7763532936147235</v>
+        <v>0.7752677906652233</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8078345076490739</v>
+        <v>0.8088358278858865</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8554432685130078</v>
+        <v>0.8591399830827305</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.910778234097163</v>
+        <v>0.9111760726031228</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8831116554468879</v>
+        <v>0.8842640138337516</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8961157231816038</v>
+        <v>0.8955967130540823</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9281450275702421</v>
+        <v>0.928866814471891</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8836333199426537</v>
+        <v>0.8876295496991093</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8373185273960452</v>
+        <v>0.8400112019799412</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8625418889823925</v>
+        <v>0.8655238832809414</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8998454605079794</v>
+        <v>0.8997438844994587</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9120756424140177</v>
+        <v>0.9110695043858204</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8642033753155212</v>
+        <v>0.8634609157922445</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8823456490819196</v>
+        <v>0.8872681172997142</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9165759075724693</v>
+        <v>0.9179260349618693</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9630424332121867</v>
+        <v>0.962406090738916</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9542955946734761</v>
+        <v>0.9526223621736538</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9533809933343854</v>
+        <v>0.9523853033642442</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9643225933994122</v>
+        <v>0.9651521983582774</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.928243140639166</v>
+        <v>0.9305391293493968</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8946309137437238</v>
+        <v>0.897818446299701</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9119657450216333</v>
+        <v>0.9137304630860604</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.93436154400126</v>
+        <v>0.9354817106572236</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9894493290622596</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9950256519857054</v>
+        <v>0.9950256519857051</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9564055670028343</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.976147317159802</v>
+        <v>0.9770553375258116</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9797332856412073</v>
+        <v>0.9774991759028887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9722971933427677</v>
+        <v>0.9745788539527794</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9779041924182514</v>
+        <v>0.9799369325176531</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.91337433938964</v>
+        <v>0.9145399343635178</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.940534239287211</v>
+        <v>0.9380031002395317</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9355575285611417</v>
+        <v>0.9386353405339423</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9686127075145891</v>
+        <v>0.9689841174046003</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9703446828393083</v>
+        <v>0.9700182774395844</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9716811764967725</v>
+        <v>0.9727643900113901</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9733510059872427</v>
+        <v>0.9725562829953175</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9798827725132535</v>
+        <v>0.9792844962892654</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.996713258777568</v>
+        <v>0.9967474323706279</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9969507180266423</v>
+        <v>0.9969453485624175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9968029534852845</v>
+        <v>0.996816458717621</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9825905208995616</v>
+        <v>0.9815220997887453</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9881193296253072</v>
+        <v>0.9877451989755262</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9936615046951313</v>
+        <v>0.9923786696660244</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9962542859706417</v>
+        <v>0.9966458689161346</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9906783689149861</v>
+        <v>0.9916318738034244</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9912713752096506</v>
+        <v>0.9920413692821187</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9938097615369251</v>
+        <v>0.9929533123522072</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9979948267436574</v>
+        <v>0.9978256660195899</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.9801692311574435</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.989414501534334</v>
+        <v>0.9894145015343343</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9805097463593402</v>
+        <v>0.9810656155985514</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9900930187555029</v>
+        <v>0.9885603418269759</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9714434163845381</v>
+        <v>0.9716154945742799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.975612164471333</v>
+        <v>0.9754229395918215</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9524584052687388</v>
+        <v>0.9528681001401387</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9625019584161911</v>
+        <v>0.9627146703698608</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9656576204702215</v>
+        <v>0.9664048085306359</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9857782648558976</v>
+        <v>0.9845118055420721</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9732538688476897</v>
+        <v>0.9740595408094852</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9817701413002241</v>
+        <v>0.9820489724195964</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9729515494365421</v>
+        <v>0.9728996898296575</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9819811080745932</v>
+        <v>0.9829529560225726</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9934990569139495</v>
+        <v>0.9938383199408333</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.998251464404597</v>
+        <v>0.9983151945278476</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9881390057242464</v>
+        <v>0.9884244911972231</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9945001410661491</v>
+        <v>0.9946148094521822</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9795161878556528</v>
+        <v>0.9797968641327464</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9865596775056781</v>
+        <v>0.9879202646877148</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.986333583344093</v>
+        <v>0.9875125733777148</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9955513066724501</v>
+        <v>0.9950697756031668</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9860811190512543</v>
+        <v>0.9869918743991702</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9924159630831443</v>
+        <v>0.9927191339146966</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9856032301641865</v>
+        <v>0.9858017592878399</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9934131590669397</v>
+        <v>0.9934372066490751</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.9931839968972483</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9939628612043753</v>
+        <v>0.9939628612043748</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9657468409800612</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9439041775528262</v>
+        <v>0.9442772634005903</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9750536259282006</v>
+        <v>0.9750941844950106</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9843860494643201</v>
+        <v>0.9849378087287748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.983221617892912</v>
+        <v>0.9823366275516177</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9469069673955341</v>
+        <v>0.9460220113175026</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.976604717901466</v>
+        <v>0.9784502370288797</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9848296842930447</v>
+        <v>0.9841646672400194</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.982399068916203</v>
+        <v>0.9826605168336152</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9536553806516048</v>
+        <v>0.951560163434942</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9807185699109042</v>
+        <v>0.9789202994990216</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.988666308914488</v>
+        <v>0.9877694953209112</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9853627410883682</v>
+        <v>0.9853511757108983</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9835538905747756</v>
+        <v>0.983770616555234</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9947785957340443</v>
+        <v>0.9951921081094063</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9982844358464336</v>
+        <v>0.9982918650703633</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9986125218235139</v>
+        <v>0.9986151687625748</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9806485793278834</v>
+        <v>0.9795097601690389</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9935969242364314</v>
+        <v>0.9945904780269951</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.998672540795458</v>
+        <v>0.9986877137518723</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9951603984359232</v>
+        <v>0.9955358977565221</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9777155976113261</v>
+        <v>0.9780969883606435</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9933005152979771</v>
+        <v>0.9926015602440073</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9971649108150343</v>
+        <v>0.9970856027431193</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.995517108281706</v>
+        <v>0.9954256503710363</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.9638008408875982</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9493132643087364</v>
+        <v>0.9493132643087363</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.9603141266743482</v>
@@ -1365,7 +1365,7 @@
         <v>0.9736474866621835</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9734393759111387</v>
+        <v>0.9734393759111389</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9604619066859486</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9332527602215177</v>
+        <v>0.9339126649723503</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9074808907056292</v>
+        <v>0.90809610761267</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9385549748448554</v>
+        <v>0.9363009158859731</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8869759387921323</v>
+        <v>0.8894106683988205</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.947946193557374</v>
+        <v>0.9483888327289193</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.953365026424297</v>
+        <v>0.9538244991867213</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.961945178894652</v>
+        <v>0.961998151233868</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9580781835043684</v>
+        <v>0.9601008744099011</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9501870207876293</v>
+        <v>0.9503173522099916</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9502075097032781</v>
+        <v>0.9511256855136471</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.9603025200611893</v>
+        <v>0.9611009110192377</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.9516390134122905</v>
+        <v>0.9493844850727627</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.978555097913284</v>
+        <v>0.9781731788880292</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9692456488533239</v>
+        <v>0.9696954074380478</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9817683868539399</v>
+        <v>0.9820806942021162</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9825617730067482</v>
+        <v>0.9827482385126692</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9694364099612984</v>
+        <v>0.9698919408167547</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9766469112571975</v>
+        <v>0.9769963578371389</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9829590268328383</v>
+        <v>0.98299017801882</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9818555801237884</v>
+        <v>0.9818107460380596</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9700540374459795</v>
+        <v>0.9692104476312451</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9721555322352738</v>
+        <v>0.973219974233704</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9796825143209104</v>
+        <v>0.9799739399590328</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9798278815890595</v>
+        <v>0.9781226141338794</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.9647372315108058</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.9703593795294818</v>
+        <v>0.9703593795294819</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.9561311877839989</v>
@@ -1513,7 +1513,7 @@
         <v>0.9582549725476427</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.9661817307166859</v>
+        <v>0.9661817307166861</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9503187683867445</v>
+        <v>0.9494029501739698</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.944084233233588</v>
+        <v>0.9443933498686565</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9432378513668211</v>
+        <v>0.9428924978628068</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9535310552300922</v>
+        <v>0.9542872131662153</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9468595328073367</v>
+        <v>0.947192141584741</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9564603729542011</v>
+        <v>0.9562538232047215</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9577615944656631</v>
+        <v>0.9580774317365197</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9653488010431968</v>
+        <v>0.9645365223713536</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9509352373382548</v>
+        <v>0.9505082662197277</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9529497711415641</v>
+        <v>0.9527580372844887</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9523736242145753</v>
+        <v>0.9530715599943972</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.9618254883681033</v>
+        <v>0.961413245279527</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9638046340523962</v>
+        <v>0.964741534814285</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9601894709158302</v>
+        <v>0.9602185013698171</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9583549823802874</v>
+        <v>0.9585236527396879</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9683218834248439</v>
+        <v>0.9681269745335628</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9607131718427541</v>
+        <v>0.9610065874907033</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.969918868138934</v>
+        <v>0.969754329046752</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9712118285959688</v>
+        <v>0.9708109530693684</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9752960338899276</v>
+        <v>0.9743715090322956</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9614415994213572</v>
+        <v>0.9611563352501854</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9631953811442525</v>
+        <v>0.9632232516906428</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9623967308790611</v>
+        <v>0.9629964381442436</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9701246350900363</v>
+        <v>0.9702054099905876</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>406441</v>
+        <v>407731</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>364312</v>
+        <v>363002</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>343962</v>
+        <v>345138</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>489991</v>
+        <v>488125</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>260596</v>
+        <v>260483</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>268198</v>
+        <v>266775</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>291353</v>
+        <v>291194</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>431063</v>
+        <v>431566</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>676616</v>
+        <v>677984</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>639217</v>
+        <v>643765</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>644455</v>
+        <v>643963</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>927083</v>
+        <v>928153</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>434183</v>
+        <v>433290</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>393902</v>
+        <v>395734</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>376136</v>
+        <v>378146</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>514626</v>
+        <v>513820</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>282952</v>
+        <v>282825</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>291241</v>
+        <v>291094</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>315424</v>
+        <v>315782</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>451818</v>
+        <v>452869</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>712158</v>
+        <v>711902</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>680229</v>
+        <v>681347</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>684523</v>
+        <v>686526</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>961342</v>
+        <v>961980</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>309134</v>
+        <v>307189</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>325134</v>
+        <v>324680</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>303958</v>
+        <v>304335</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>413360</v>
+        <v>415147</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>338687</v>
+        <v>338834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>298501</v>
+        <v>298891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>333600</v>
+        <v>333406</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>392738</v>
+        <v>393043</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>652827</v>
+        <v>655780</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>633689</v>
+        <v>635727</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>645645</v>
+        <v>647877</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>815579</v>
+        <v>815487</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>334672</v>
+        <v>334302</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>361926</v>
+        <v>361615</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>331994</v>
+        <v>333846</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>442900</v>
+        <v>443553</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>358122</v>
+        <v>357885</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>322562</v>
+        <v>321997</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>354918</v>
+        <v>354547</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>408046</v>
+        <v>408397</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>685785</v>
+        <v>687481</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>677064</v>
+        <v>679476</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>682640</v>
+        <v>683961</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>846863</v>
+        <v>847879</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>528653</v>
+        <v>529145</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>616659</v>
+        <v>615253</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>507456</v>
+        <v>508646</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>461191</v>
+        <v>462150</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>153248</v>
+        <v>153443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>244660</v>
+        <v>244002</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>155418</v>
+        <v>155929</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>181612</v>
+        <v>181682</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>688317</v>
+        <v>688085</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>864353</v>
+        <v>865317</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>669701</v>
+        <v>669154</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>645850</v>
+        <v>645455</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>539791</v>
+        <v>539810</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>627496</v>
+        <v>627492</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>520245</v>
+        <v>520252</v>
       </c>
       <c r="F15" s="6" t="n">
         <v>471612</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>164861</v>
+        <v>164682</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>257038</v>
+        <v>256941</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>165070</v>
+        <v>164857</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>186795</v>
+        <v>186868</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>702741</v>
+        <v>703417</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>881780</v>
+        <v>882464</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>683777</v>
+        <v>683188</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>657787</v>
+        <v>657676</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1211102</v>
+        <v>1211789</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1146555</v>
+        <v>1144781</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1115901</v>
+        <v>1116099</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1104240</v>
+        <v>1104026</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>680327</v>
+        <v>680619</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>737909</v>
+        <v>738072</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>794081</v>
+        <v>794695</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>848963</v>
+        <v>847872</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1897320</v>
+        <v>1898891</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1889598</v>
+        <v>1890135</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1917712</v>
+        <v>1917610</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1957141</v>
+        <v>1959078</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1227146</v>
+        <v>1227565</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1156003</v>
+        <v>1156077</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1135079</v>
+        <v>1135407</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1125618</v>
+        <v>1125748</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>699654</v>
+        <v>699854</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>756353</v>
+        <v>757396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>811083</v>
+        <v>812052</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>857380</v>
+        <v>856965</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1922327</v>
+        <v>1924102</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1910088</v>
+        <v>1910672</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1942649</v>
+        <v>1943040</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1979926</v>
+        <v>1979974</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>330890</v>
+        <v>331021</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>497858</v>
+        <v>497879</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>609865</v>
+        <v>610206</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>558434</v>
+        <v>557932</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>538555</v>
+        <v>538052</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>743706</v>
+        <v>745111</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>726080</v>
+        <v>725590</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>815516</v>
+        <v>815733</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>876702</v>
+        <v>874776</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1247590</v>
+        <v>1245302</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1341425</v>
+        <v>1340209</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1377627</v>
+        <v>1377611</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>344790</v>
+        <v>344866</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>507930</v>
+        <v>508141</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>618475</v>
+        <v>618480</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>567176</v>
+        <v>567177</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>557746</v>
+        <v>557098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>756646</v>
+        <v>757403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>736286</v>
+        <v>736297</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>826110</v>
+        <v>826421</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>898821</v>
+        <v>899171</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1263595</v>
+        <v>1262706</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1352956</v>
+        <v>1352849</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1391824</v>
+        <v>1391696</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>277431</v>
+        <v>277627</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>242190</v>
+        <v>242355</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>269501</v>
+        <v>268854</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>210416</v>
+        <v>210993</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1181835</v>
+        <v>1182387</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1057616</v>
+        <v>1058126</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1039626</v>
+        <v>1039683</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>808887</v>
+        <v>810595</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1467094</v>
+        <v>1467295</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1307707</v>
+        <v>1308971</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1313597</v>
+        <v>1314689</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>1029206</v>
+        <v>1026768</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>290898</v>
+        <v>290784</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>258674</v>
+        <v>258794</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>281910</v>
+        <v>282000</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>233091</v>
+        <v>233135</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1208627</v>
+        <v>1209195</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1083444</v>
+        <v>1083832</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1062337</v>
+        <v>1062371</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>828962</v>
+        <v>828924</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1497768</v>
+        <v>1496466</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>1337913</v>
+        <v>1339377</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1340107</v>
+        <v>1340505</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>1059693</v>
+        <v>1057848</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3101633</v>
+        <v>3098644</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3229645</v>
+        <v>3230703</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3190649</v>
+        <v>3189481</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3282508</v>
+        <v>3285111</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3196689</v>
+        <v>3197812</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3395554</v>
+        <v>3394821</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3376867</v>
+        <v>3377981</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3508724</v>
+        <v>3505772</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>6314094</v>
+        <v>6311259</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>6643064</v>
+        <v>6641728</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>6579423</v>
+        <v>6584244</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>6806979</v>
+        <v>6804062</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3145648</v>
+        <v>3148706</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3284740</v>
+        <v>3284839</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3241785</v>
+        <v>3242356</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3333425</v>
+        <v>3332754</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>3243460</v>
+        <v>3244450</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3443333</v>
+        <v>3442749</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>3424290</v>
+        <v>3422877</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>3544879</v>
+        <v>3541519</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>6383855</v>
+        <v>6381961</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>6714487</v>
+        <v>6714681</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>6648667</v>
+        <v>6652810</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>6865714</v>
+        <v>6866285</v>
       </c>
     </row>
     <row r="32">
